--- a/extras/test-form/plugin_test_form_select_one.xlsx
+++ b/extras/test-form/plugin_test_form_select_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/conjoint-analysis/extras/test-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1BCC3-B9C7-264A-A534-D888203BB55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C018FF-C92A-FE4D-A795-2A753F834FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2603,9 +2603,6 @@
     </r>
   </si>
   <si>
-    <t>Plug-in test form - conjoint field</t>
-  </si>
-  <si>
     <t>conjoint_test_1</t>
   </si>
   <si>
@@ -2751,6 +2748,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comma separated list of labels for the buttons </t>
+  </si>
+  <si>
+    <t>Plug-in sample form - conjoint field</t>
   </si>
 </sst>
 </file>
@@ -5674,9 +5674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6064,10 +6064,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="12"/>
@@ -6081,7 +6081,7 @@
       <c r="M12" s="46"/>
       <c r="N12" s="12"/>
       <c r="O12" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -6094,10 +6094,10 @@
         <v>54</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="12"/>
@@ -6111,7 +6111,7 @@
       <c r="M13" s="46"/>
       <c r="N13" s="12"/>
       <c r="O13" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -6124,10 +6124,10 @@
         <v>54</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="12"/>
@@ -6141,7 +6141,7 @@
       <c r="M14" s="46"/>
       <c r="N14" s="12"/>
       <c r="O14" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -6154,10 +6154,10 @@
         <v>54</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="12"/>
@@ -6171,7 +6171,7 @@
       <c r="M15" s="46"/>
       <c r="N15" s="12"/>
       <c r="O15" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -6184,10 +6184,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="12"/>
@@ -6201,7 +6201,7 @@
       <c r="M16" s="46"/>
       <c r="N16" s="12"/>
       <c r="O16" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -6214,10 +6214,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="12"/>
@@ -6231,7 +6231,7 @@
       <c r="M17" s="46"/>
       <c r="N17" s="12"/>
       <c r="O17" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -6244,10 +6244,10 @@
         <v>54</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="12"/>
@@ -6261,7 +6261,7 @@
       <c r="M18" s="46"/>
       <c r="N18" s="12"/>
       <c r="O18" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -6274,10 +6274,10 @@
         <v>54</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="12"/>
@@ -6291,7 +6291,7 @@
       <c r="M19" s="46"/>
       <c r="N19" s="12"/>
       <c r="O19" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -6304,10 +6304,10 @@
         <v>54</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="12"/>
@@ -6321,7 +6321,7 @@
       <c r="M20" s="46"/>
       <c r="N20" s="12"/>
       <c r="O20" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -6334,17 +6334,17 @@
         <v>97</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="16"/>
@@ -6366,7 +6366,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="9"/>
@@ -6381,7 +6381,7 @@
       <c r="M22" s="46"/>
       <c r="N22" s="12"/>
       <c r="O22" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -6394,17 +6394,17 @@
         <v>97</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="16"/>
@@ -6426,7 +6426,7 @@
         <v>54</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
@@ -6441,7 +6441,7 @@
       <c r="M24" s="46"/>
       <c r="N24" s="12"/>
       <c r="O24" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -6454,17 +6454,17 @@
         <v>97</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="16"/>
@@ -6486,7 +6486,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
@@ -6501,7 +6501,7 @@
       <c r="M26" s="46"/>
       <c r="N26" s="12"/>
       <c r="O26" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -6514,17 +6514,17 @@
         <v>97</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="16"/>
@@ -6546,7 +6546,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="16"/>
@@ -6561,7 +6561,7 @@
       <c r="M28" s="46"/>
       <c r="N28" s="12"/>
       <c r="O28" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -6574,17 +6574,17 @@
         <v>97</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="16"/>
@@ -6606,7 +6606,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="16"/>
@@ -6621,7 +6621,7 @@
       <c r="M30" s="46"/>
       <c r="N30" s="12"/>
       <c r="O30" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -6634,17 +6634,17 @@
         <v>97</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="16"/>
@@ -6666,7 +6666,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="16"/>
@@ -6681,7 +6681,7 @@
       <c r="M32" s="46"/>
       <c r="N32" s="12"/>
       <c r="O32" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -54988,8 +54988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55045,14 +55045,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2207261310</v>
+        <v>2207261423</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>41</v>
